--- a/www/terminologies/ASS-A20-RolePriseCharge-GenreActivite.xlsx
+++ b/www/terminologies/ASS-A20-RolePriseCharge-GenreActivite.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>
@@ -299,7 +305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -399,13 +405,21 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -422,295 +436,295 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
         <v>25</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2"/>
     </row>

--- a/www/terminologies/ASS-A20-RolePriseCharge-GenreActivite.xlsx
+++ b/www/terminologies/ASS-A20-RolePriseCharge-GenreActivite.xlsx
@@ -99,13 +99,13 @@
     <t>Target</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R85-RolePriseCharge/FHIR/TRE-R85-RolePriseCharge</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R85-RolePriseCharge/FHIR/TRE-R85-RolePriseCharge|20251222120000</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R22-GenreActivite/FHIR/TRE-R22-GenreActivite</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R22-GenreActivite/FHIR/TRE-R22-GenreActivite|20240329120000</t>
   </si>
   <si>
     <t>312</t>
